--- a/sequence.xlsx
+++ b/sequence.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7809CD-5DF4-4D30-932B-E559883DA5B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="L3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>[5, 17, 29, 41, 77, 161, 197, 209, 245, 353, 533, 665, 869, 1313, 1469, 1529, 1589, 1697, 1877, 2033, 2357]</t>
   </si>
@@ -36,12 +38,42 @@
   <si>
     <t>a(n)</t>
   </si>
+  <si>
+    <t>2,2,2,4,6,4,2,4,8,10</t>
+  </si>
+  <si>
+    <t>1,1,1,3,7,3,1,3,9,15</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L2-Diff</t>
+  </si>
+  <si>
+    <t>(A161644)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>L3 Diff</t>
+  </si>
+  <si>
+    <t>L2 Diff/3</t>
+  </si>
+  <si>
+    <t>L3 Diff/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +87,22 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,13 +120,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,9 +165,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -111,6 +179,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -136,7 +205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -335,7 +404,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9FBB-4CB1-B7FA-A0E0C37A7A05}"/>
             </c:ext>
@@ -349,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453582880"/>
-        <c:axId val="453587144"/>
+        <c:axId val="383453952"/>
+        <c:axId val="383450816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453582880"/>
+        <c:axId val="383453952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,15 +476,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453587144"/>
+        <c:crossAx val="383450816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453587144"/>
+        <c:axId val="383450816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,10 +538,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453582880"/>
+        <c:crossAx val="383453952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -486,13 +555,512 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="501308160"/>
+        <c:axId val="501307376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="501308160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501307376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501307376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501308160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -517,7 +1085,2591 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385419976"/>
+        <c:axId val="385418408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385419976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385418408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385418408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385419976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>L2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> vs L3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$6:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4565</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="511142072"/>
+        <c:axId val="511140504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="511142072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511140504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="511140504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511142072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>L2 diff</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> vs L3 diff</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2 Diff/3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$8:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L3 Diff/12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$8:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385218208"/>
+        <c:axId val="385215856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385218208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385215856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385215856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385218208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>L2 vs L3 (Ln scale)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$6:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4565</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508088240"/>
+        <c:axId val="505588960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508088240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505588960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="505588960"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508088240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -568,7 +3720,2787 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1104,7 +7036,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435FD4B0-CEA3-4DA0-92D7-A1DB92B2DB85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{435FD4B0-CEA3-4DA0-92D7-A1DB92B2DB85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,6 +7049,168 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1387,14 +7481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1610,4 +7704,1332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>C9+1</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="0">C10+1</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>C7-C6</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7-D6</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7/3</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B35" si="0">B7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E35" si="1">C8-C7</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F35" si="2">D8-D7</f>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <f>E8/3</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>F8/12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9/3</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H7:J35" si="3">F9/12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10/3</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11/3</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12/3</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>197</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13/3</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2">
+        <v>209</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14/3</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2">
+        <v>245</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15/3</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2">
+        <v>353</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16/3</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>136</v>
+      </c>
+      <c r="D17" s="2">
+        <v>533</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="G17" s="2">
+        <f>E17/3</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2">
+        <v>665</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="G18" s="2">
+        <f>E18/3</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2">
+        <v>869</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="G19" s="2">
+        <f>E19/3</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>232</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1313</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="G20" s="2">
+        <f>E20/3</f>
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>256</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1469</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="G21" s="2">
+        <f>E21/3</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>262</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1529</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G22" s="2">
+        <f>E22/3</f>
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>274</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1589</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G23" s="2">
+        <f>E23/3</f>
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>298</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1697</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G24" s="2">
+        <f>E24/3</f>
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="2">
+        <v>328</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1877</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="G25" s="2">
+        <f>E25/3</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>358</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2033</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="G26" s="2">
+        <f>E26/3</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <v>400</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2357</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="G27" s="2">
+        <f>E27/3</f>
+        <v>14</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>466</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3089</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>732</v>
+      </c>
+      <c r="G28" s="2">
+        <f>E28/3</f>
+        <v>22</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <v>532</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3869</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="G29" s="2">
+        <f>E29/3</f>
+        <v>22</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>568</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4241</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="G30" s="2">
+        <f>E30/3</f>
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="2">
+        <v>598</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4565</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="G31" s="2">
+        <f>E31/3</f>
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>658</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5321</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="G32" s="2">
+        <f>E32/3</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="2">
+        <v>742</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6749</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>1428</v>
+      </c>
+      <c r="G33" s="2">
+        <f>E33/3</f>
+        <v>28</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>814</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7865</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="G34" s="2">
+        <f>E34/3</f>
+        <v>24</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="2">
+        <v>892</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9197</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>1332</v>
+      </c>
+      <c r="G35" s="2">
+        <f>E35/3</f>
+        <v>26</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F3:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>161</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>209</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>245</v>
+      </c>
+      <c r="F12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>353</v>
+      </c>
+      <c r="F13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>533</v>
+      </c>
+      <c r="F14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>665</v>
+      </c>
+      <c r="F15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>869</v>
+      </c>
+      <c r="F16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1313</v>
+      </c>
+      <c r="F17">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1469</v>
+      </c>
+      <c r="F18">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1529</v>
+      </c>
+      <c r="F19">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1589</v>
+      </c>
+      <c r="F20">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1697</v>
+      </c>
+      <c r="F21">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1877</v>
+      </c>
+      <c r="F22">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2033</v>
+      </c>
+      <c r="F23">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2357</v>
+      </c>
+      <c r="F24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3089</v>
+      </c>
+      <c r="F25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3869</v>
+      </c>
+      <c r="F26">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4241</v>
+      </c>
+      <c r="F27">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>4565</v>
+      </c>
+      <c r="F28">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>5321</v>
+      </c>
+      <c r="F29">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>6749</v>
+      </c>
+      <c r="F30">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>7865</v>
+      </c>
+      <c r="F31">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>9197</v>
+      </c>
+      <c r="F32">
+        <v>892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>